--- a/data/trans_orig/P07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P07-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>55660</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43592</v>
+        <v>42847</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72795</v>
+        <v>71996</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05394884199664104</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04225175014884373</v>
+        <v>0.04152954733896444</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07055682023611848</v>
+        <v>0.06978206413051527</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>139</v>
@@ -765,19 +765,19 @@
         <v>144612</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>121673</v>
+        <v>122975</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>167193</v>
+        <v>167885</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1099618406170092</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09251922093304542</v>
+        <v>0.0935088174773322</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1271322275641742</v>
+        <v>0.1276584794691131</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>197</v>
@@ -786,19 +786,19 @@
         <v>200272</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>175636</v>
+        <v>175731</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>229954</v>
+        <v>227481</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08533723838071276</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0748393205622304</v>
+        <v>0.07488018810055257</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0979849065814227</v>
+        <v>0.09693102378095399</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>276285</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>248854</v>
+        <v>249449</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>304917</v>
+        <v>308391</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2677901769469557</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2412024037104817</v>
+        <v>0.241778942704891</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2955411903631271</v>
+        <v>0.2989084705644823</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>491</v>
@@ -836,19 +836,19 @@
         <v>507566</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>473850</v>
+        <v>472278</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>542671</v>
+        <v>543163</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3859488200485101</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3603108732349423</v>
+        <v>0.3591162112867767</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4126419796139006</v>
+        <v>0.4130163368705519</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>771</v>
@@ -857,19 +857,19 @@
         <v>783851</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>740413</v>
+        <v>734575</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>826873</v>
+        <v>826929</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3340035634326956</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3154941820224412</v>
+        <v>0.3130067225482374</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3523353567034823</v>
+        <v>0.3523592182360498</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>438581</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>408150</v>
+        <v>407199</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>470656</v>
+        <v>470755</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4250961203045394</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3956005964940764</v>
+        <v>0.394678790534512</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.456184314817499</v>
+        <v>0.4562806988611679</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>461</v>
@@ -907,19 +907,19 @@
         <v>463673</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>431014</v>
+        <v>430138</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>501733</v>
+        <v>497490</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3525723784298369</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3277393197148306</v>
+        <v>0.3270728342600843</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3815135704325743</v>
+        <v>0.3782866592317481</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>906</v>
@@ -928,19 +928,19 @@
         <v>902254</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>851693</v>
+        <v>856078</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>947586</v>
+        <v>948729</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3844554830723186</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3629115000357279</v>
+        <v>0.3647799237401464</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4037721000246102</v>
+        <v>0.4042587249589487</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>204454</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>179479</v>
+        <v>180361</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>232492</v>
+        <v>230671</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1981672744241593</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1739599789308162</v>
+        <v>0.1748149219838805</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2253431366272058</v>
+        <v>0.2235786180198726</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>154</v>
@@ -978,19 +978,19 @@
         <v>151519</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>130871</v>
+        <v>128990</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>173751</v>
+        <v>172785</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.11521395829948</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09951348432790764</v>
+        <v>0.09808268214677597</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1321188225130584</v>
+        <v>0.1313841869081558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>353</v>
@@ -999,19 +999,19 @@
         <v>355973</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>324597</v>
+        <v>323740</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>391928</v>
+        <v>390311</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1516821436147577</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1383126616211732</v>
+        <v>0.1379475826013813</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1670026812169884</v>
+        <v>0.1663139136924426</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>56742</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>43290</v>
+        <v>42669</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>74262</v>
+        <v>72989</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05499758632770454</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04195937799141827</v>
+        <v>0.04135667802874132</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07197901807291064</v>
+        <v>0.07074472103729798</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -1049,19 +1049,19 @@
         <v>47743</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34907</v>
+        <v>35186</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64552</v>
+        <v>63049</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03630300260516385</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02654276444431958</v>
+        <v>0.0267550741954651</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04908494968337889</v>
+        <v>0.04794182526738536</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>102</v>
@@ -1070,19 +1070,19 @@
         <v>104485</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>84948</v>
+        <v>85139</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>126218</v>
+        <v>127203</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04452157149951526</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03619666228036732</v>
+        <v>0.036278241243121</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05378207132223425</v>
+        <v>0.05420200558521147</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>15171</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8759</v>
+        <v>8919</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24206</v>
+        <v>23165</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00896473462119461</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005175990472053784</v>
+        <v>0.005270108468877994</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01430322399608819</v>
+        <v>0.01368797884475455</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -1195,19 +1195,19 @@
         <v>41023</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29244</v>
+        <v>29911</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53637</v>
+        <v>54164</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02583835219031626</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01841910146234062</v>
+        <v>0.01883973747441367</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03378355208773216</v>
+        <v>0.03411539117310951</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -1216,19 +1216,19 @@
         <v>56194</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43197</v>
+        <v>43684</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71209</v>
+        <v>72740</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01713235016269394</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01316983908105679</v>
+        <v>0.01331837933640731</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02171008139346231</v>
+        <v>0.02217686579640829</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>119174</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99888</v>
+        <v>99196</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>143835</v>
+        <v>142930</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07041997101179727</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05902383430196018</v>
+        <v>0.05861483231073653</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08499217564762662</v>
+        <v>0.08445764983031935</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>201</v>
@@ -1266,19 +1266,19 @@
         <v>206436</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>177684</v>
+        <v>179938</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>233984</v>
+        <v>232877</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.130024358575622</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1119149646439156</v>
+        <v>0.1133347294880185</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.147375390540114</v>
+        <v>0.1466784118614158</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>317</v>
@@ -1287,19 +1287,19 @@
         <v>325610</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>293992</v>
+        <v>292607</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>365011</v>
+        <v>358219</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09927126624908675</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08963156083181865</v>
+        <v>0.08920927465074702</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1112837395856661</v>
+        <v>0.1092130631395604</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>575433</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>536664</v>
+        <v>538377</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>615402</v>
+        <v>617533</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3400243200985096</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3171160581391493</v>
+        <v>0.3181279549843104</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3636420843192059</v>
+        <v>0.3649014512921226</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>687</v>
@@ -1337,19 +1337,19 @@
         <v>712671</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>671895</v>
+        <v>674778</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>753246</v>
+        <v>754818</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.448877394052473</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4231948035546527</v>
+        <v>0.4250103886532161</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4744340523746898</v>
+        <v>0.475424168783697</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1251</v>
@@ -1358,19 +1358,19 @@
         <v>1288103</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1229497</v>
+        <v>1227590</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1340920</v>
+        <v>1348548</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.39271426965582</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3748466075700566</v>
+        <v>0.3742651057554202</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4088168270325784</v>
+        <v>0.4111424478925743</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>767050</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>722604</v>
+        <v>725979</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>804170</v>
+        <v>809892</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.453251502518394</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4269880194385786</v>
+        <v>0.4289826095473943</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4751855301259654</v>
+        <v>0.4785668428232056</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>476</v>
@@ -1408,19 +1408,19 @@
         <v>476691</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>439046</v>
+        <v>444563</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>509900</v>
+        <v>516274</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3002451983001858</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2765341631224458</v>
+        <v>0.280009239043227</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3211618775272584</v>
+        <v>0.3251767071051083</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1222</v>
@@ -1429,19 +1429,19 @@
         <v>1243741</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1189371</v>
+        <v>1185998</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1298869</v>
+        <v>1298696</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3791893363491827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3626129962524535</v>
+        <v>0.3615845457442015</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3959966182020725</v>
+        <v>0.3959438295709762</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>215500</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>188853</v>
+        <v>187484</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>247392</v>
+        <v>242296</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1273394717501046</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1115938356189877</v>
+        <v>0.1107845572933813</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1461846121304649</v>
+        <v>0.1431729094643536</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>149</v>
@@ -1479,19 +1479,19 @@
         <v>150852</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>129068</v>
+        <v>129103</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>173593</v>
+        <v>176301</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09501469688140302</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08129356394987523</v>
+        <v>0.08131564921756612</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1093380174638939</v>
+        <v>0.1110437731938598</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>355</v>
@@ -1500,19 +1500,19 @@
         <v>366352</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>330091</v>
+        <v>331240</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>402084</v>
+        <v>407939</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1116927775832166</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.100637488486799</v>
+        <v>0.1009878836799294</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1225866533428966</v>
+        <v>0.1243717029493782</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>9721</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4324</v>
+        <v>4115</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18413</v>
+        <v>18589</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01762990739554854</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007842051906833597</v>
+        <v>0.007462234385110299</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03339192119657883</v>
+        <v>0.03371210638135459</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1625,19 +1625,19 @@
         <v>9727</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4349</v>
+        <v>4556</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17323</v>
+        <v>17702</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02041732939584551</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009129266388255742</v>
+        <v>0.009563299690782418</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0363605706382242</v>
+        <v>0.03715784683081049</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1646,19 +1646,19 @@
         <v>19448</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11602</v>
+        <v>11713</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30405</v>
+        <v>30498</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01892192431464879</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01128838931028113</v>
+        <v>0.01139596645183067</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02958234065475818</v>
+        <v>0.0296723597220718</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>36396</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25999</v>
+        <v>24965</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50102</v>
+        <v>50340</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06600526132382371</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04715058686876627</v>
+        <v>0.04527430466625321</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09086136884777919</v>
+        <v>0.09129366288713585</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -1696,19 +1696,19 @@
         <v>58348</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44099</v>
+        <v>44909</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>72296</v>
+        <v>73293</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.122473942917246</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09256496069343285</v>
+        <v>0.09426582669544926</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.151751347511121</v>
+        <v>0.1538447749567869</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>89</v>
@@ -1717,19 +1717,19 @@
         <v>94744</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>76664</v>
+        <v>76556</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>114164</v>
+        <v>114415</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09217944377994748</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07458927665519079</v>
+        <v>0.07448412370839086</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.111074214901191</v>
+        <v>0.1113183964840597</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>193917</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>170447</v>
+        <v>170683</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>217976</v>
+        <v>217627</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3516753939609085</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3091126427220975</v>
+        <v>0.309540110608055</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3953084378604068</v>
+        <v>0.3946744239915644</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>188</v>
@@ -1767,19 +1767,19 @@
         <v>196006</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>172742</v>
+        <v>175178</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>217249</v>
+        <v>217609</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4114216585067557</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3625894752738029</v>
+        <v>0.3677033815068592</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4560116334179665</v>
+        <v>0.4567671640624483</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>373</v>
@@ -1788,19 +1788,19 @@
         <v>389923</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>356137</v>
+        <v>358701</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>421714</v>
+        <v>423900</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3793687911709648</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3464971437237981</v>
+        <v>0.3489917545141294</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4102991111490721</v>
+        <v>0.4124267646703964</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>224270</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>200754</v>
+        <v>200720</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>249309</v>
+        <v>251018</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4067232395427698</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.364074662748691</v>
+        <v>0.3640141920781756</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4521310727550573</v>
+        <v>0.4552301947000424</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>141</v>
@@ -1838,19 +1838,19 @@
         <v>150166</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>131760</v>
+        <v>129377</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>172575</v>
+        <v>171630</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3152029605272066</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2765675944356839</v>
+        <v>0.2715647705862546</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3622394689349422</v>
+        <v>0.3602544285565913</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>357</v>
@@ -1859,19 +1859,19 @@
         <v>374437</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>344791</v>
+        <v>344212</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>407922</v>
+        <v>407072</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3643020528992386</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3354588899622832</v>
+        <v>0.3348956079661391</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3968803589210018</v>
+        <v>0.3960541657055769</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>87104</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>69962</v>
+        <v>70065</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>104930</v>
+        <v>106040</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1579661977769495</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1268781775269856</v>
+        <v>0.1270648500158545</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1902947592104315</v>
+        <v>0.1923082671570882</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>59</v>
@@ -1909,19 +1909,19 @@
         <v>62164</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47613</v>
+        <v>47895</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>78514</v>
+        <v>77461</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1304841086529462</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09994110364343621</v>
+        <v>0.1005323295173086</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1648026175275345</v>
+        <v>0.1625932369694975</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>143</v>
@@ -1930,19 +1930,19 @@
         <v>149268</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>128219</v>
+        <v>128941</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>173643</v>
+        <v>175400</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1452277878352004</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1247488042891685</v>
+        <v>0.1254506522315515</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1689425558213215</v>
+        <v>0.1706529301493104</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>80553</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64647</v>
+        <v>65569</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99474</v>
+        <v>99070</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02459282786120198</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01973689475073093</v>
+        <v>0.02001820669832913</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03036952612467676</v>
+        <v>0.03024602888784226</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>189</v>
@@ -2055,19 +2055,19 @@
         <v>195362</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>169837</v>
+        <v>170155</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>224507</v>
+        <v>225236</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05781317145324714</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05025953657943617</v>
+        <v>0.05035364525738943</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06643784502446018</v>
+        <v>0.06665361304580422</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>271</v>
@@ -2076,19 +2076,19 @@
         <v>275915</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>244523</v>
+        <v>246376</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>307800</v>
+        <v>311459</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04146193330101709</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03674460053060555</v>
+        <v>0.03702314565848851</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04625329589651055</v>
+        <v>0.04680313951171697</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>431855</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>394833</v>
+        <v>397602</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>470285</v>
+        <v>471943</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1318455769998638</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1205426756083905</v>
+        <v>0.1213883128905383</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1435782182307071</v>
+        <v>0.1440844732403338</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>747</v>
@@ -2126,19 +2126,19 @@
         <v>772350</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>727592</v>
+        <v>729112</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>824803</v>
+        <v>825187</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2285602987696919</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2153149568198841</v>
+        <v>0.2157648858351017</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2440826561482957</v>
+        <v>0.244196215752551</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1177</v>
@@ -2147,19 +2147,19 @@
         <v>1204205</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1141141</v>
+        <v>1139609</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1269137</v>
+        <v>1267788</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1809567740167509</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1714800924217115</v>
+        <v>0.1712498599677677</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1907141687891422</v>
+        <v>0.1905114785493278</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>1207931</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1146530</v>
+        <v>1150959</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1262274</v>
+        <v>1260369</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3687821273946106</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3500365873795543</v>
+        <v>0.3513887500901154</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3853732581573923</v>
+        <v>0.3847914461525616</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1336</v>
@@ -2197,19 +2197,19 @@
         <v>1372349</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1314124</v>
+        <v>1318141</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1431170</v>
+        <v>1428189</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4061168576332819</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3888864749859481</v>
+        <v>0.390075317279618</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4235236744366689</v>
+        <v>0.4226416610167997</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2530</v>
@@ -2218,19 +2218,19 @@
         <v>2580280</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2502995</v>
+        <v>2506333</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2659666</v>
+        <v>2675400</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3877404954565836</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3761268552102342</v>
+        <v>0.3766284630371535</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3996699365161088</v>
+        <v>0.4020343518126006</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>1195774</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1141225</v>
+        <v>1137165</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1252288</v>
+        <v>1247863</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3650707948931452</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3484168198992468</v>
+        <v>0.3471772564163678</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.382324458456138</v>
+        <v>0.3809736144219432</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>771</v>
@@ -2268,19 +2268,19 @@
         <v>778377</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>727603</v>
+        <v>728321</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>828621</v>
+        <v>824706</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2303437258833724</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.215318275647543</v>
+        <v>0.2155308738054229</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2452123324613485</v>
+        <v>0.2440539291163664</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1932</v>
@@ -2289,19 +2289,19 @@
         <v>1974151</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1898650</v>
+        <v>1895683</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2057633</v>
+        <v>2053316</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.296657139675343</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2853115456413106</v>
+        <v>0.2848656640519723</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.309201940111682</v>
+        <v>0.3085533290023018</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>359346</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>326198</v>
+        <v>322164</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>400083</v>
+        <v>399288</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1097086728511784</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09958859357611266</v>
+        <v>0.09835684991739321</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1221456822099823</v>
+        <v>0.1219027911273357</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>254</v>
@@ -2339,19 +2339,19 @@
         <v>260759</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>232725</v>
+        <v>232895</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>293127</v>
+        <v>292107</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07716594626040663</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06887002469225437</v>
+        <v>0.06892025585299161</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08674471770092637</v>
+        <v>0.08644273016814578</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>600</v>
@@ -2360,19 +2360,19 @@
         <v>620105</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>571597</v>
+        <v>571600</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>671457</v>
+        <v>667114</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09318365755030543</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08589432509672855</v>
+        <v>0.08589482122795376</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1009003473827076</v>
+        <v>0.1002477140861422</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>73265</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57519</v>
+        <v>59300</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94331</v>
+        <v>94406</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07517130900643439</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05901545554077049</v>
+        <v>0.06084262884745262</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09678514588686425</v>
+        <v>0.09686248579340428</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>143</v>
@@ -2724,19 +2724,19 @@
         <v>152485</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>130567</v>
+        <v>130529</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>175765</v>
+        <v>175913</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.114062713010469</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09766741397942974</v>
+        <v>0.09763888218761403</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.131477182631966</v>
+        <v>0.1315874281993171</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>209</v>
@@ -2745,19 +2745,19 @@
         <v>225750</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>196319</v>
+        <v>197447</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>256157</v>
+        <v>257960</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09766412899350442</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0849314356777652</v>
+        <v>0.08541973120451338</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1108186006321286</v>
+        <v>0.1115989513591456</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>267720</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>237719</v>
+        <v>237547</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>297115</v>
+        <v>298095</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2746847307384331</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2439037178506773</v>
+        <v>0.2437272920150334</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3048448499008444</v>
+        <v>0.3058505335112259</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>445</v>
@@ -2795,19 +2795,19 @@
         <v>474182</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>442441</v>
+        <v>438510</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>512857</v>
+        <v>509923</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3547007719969424</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3309573113433008</v>
+        <v>0.3280174535013946</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3836308430162078</v>
+        <v>0.3814361441810976</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>688</v>
@@ -2816,19 +2816,19 @@
         <v>741902</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>699421</v>
+        <v>695311</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>792673</v>
+        <v>787284</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3209619598124698</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3025840591704515</v>
+        <v>0.3008059084707932</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3429265697229441</v>
+        <v>0.3405954765281303</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>428700</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>398171</v>
+        <v>395396</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>460355</v>
+        <v>461555</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4398537924708094</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4085297542033079</v>
+        <v>0.4056824783677802</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4723320974139871</v>
+        <v>0.4735632844381553</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>494</v>
@@ -2866,19 +2866,19 @@
         <v>533180</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>496595</v>
+        <v>497390</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>569488</v>
+        <v>573295</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3988325764598175</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3714665170626992</v>
+        <v>0.3720611018767201</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4259920984328951</v>
+        <v>0.4288402155475416</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>898</v>
@@ -2887,19 +2887,19 @@
         <v>961880</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>912974</v>
+        <v>913566</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1011256</v>
+        <v>1013568</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4161291969974694</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3949711869384185</v>
+        <v>0.3952276893715567</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4374902207401981</v>
+        <v>0.4384902652867805</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>163432</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>139217</v>
+        <v>140930</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>187651</v>
+        <v>189696</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1676839210615158</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1428384588782505</v>
+        <v>0.1445967223320871</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1925330105361679</v>
+        <v>0.1946316602699009</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>146</v>
@@ -2937,19 +2937,19 @@
         <v>157059</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>134090</v>
+        <v>134493</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>183173</v>
+        <v>183212</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1174843894569132</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1003027854043341</v>
+        <v>0.1006041434681356</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1370179660986906</v>
+        <v>0.1370477541195714</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>300</v>
@@ -2958,19 +2958,19 @@
         <v>320491</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>286113</v>
+        <v>287366</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>355723</v>
+        <v>356949</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1386510523149819</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1237785642290055</v>
+        <v>0.1243203206758759</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.153893163604064</v>
+        <v>0.1544235573591132</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>41526</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30157</v>
+        <v>30125</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>55258</v>
+        <v>54793</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04260624672280727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03094203530579001</v>
+        <v>0.03090828558468828</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05669561940389077</v>
+        <v>0.05621865249066568</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -3008,19 +3008,19 @@
         <v>19945</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11987</v>
+        <v>11704</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30262</v>
+        <v>30389</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01491954907585796</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008966966395292328</v>
+        <v>0.008755046804608143</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02263652963644876</v>
+        <v>0.02273171332680708</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>59</v>
@@ -3029,19 +3029,19 @@
         <v>61471</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>47803</v>
+        <v>47245</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>78239</v>
+        <v>78437</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02659366188157444</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02068073791372827</v>
+        <v>0.02043905310754496</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0338477518887811</v>
+        <v>0.03393349746574289</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>23057</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13842</v>
+        <v>14550</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34359</v>
+        <v>34692</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0117703825710035</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007066178449703567</v>
+        <v>0.007427786702312286</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01754003825844631</v>
+        <v>0.01770998242766968</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -3154,19 +3154,19 @@
         <v>43621</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31516</v>
+        <v>32067</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57696</v>
+        <v>57663</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02485678158945508</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01795897412261202</v>
+        <v>0.01827297542596973</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03287761539558061</v>
+        <v>0.03285863166927219</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -3175,19 +3175,19 @@
         <v>66677</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50320</v>
+        <v>50437</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84477</v>
+        <v>87008</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0179541723593548</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01354950713356595</v>
+        <v>0.0135812178271585</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02274710285725373</v>
+        <v>0.02342865306571923</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>174844</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>150195</v>
+        <v>150807</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>201622</v>
+        <v>202335</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08925731164286431</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0766739473216678</v>
+        <v>0.07698664722774375</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1029276728689246</v>
+        <v>0.1032916002000538</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>218</v>
@@ -3225,19 +3225,19 @@
         <v>240604</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>212826</v>
+        <v>210630</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>274079</v>
+        <v>270463</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1371056583369837</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1212763376512633</v>
+        <v>0.120025090433416</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1561811193494601</v>
+        <v>0.1541205800223456</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>383</v>
@@ -3246,19 +3246,19 @@
         <v>415448</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>373306</v>
+        <v>374516</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>452680</v>
+        <v>456709</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1118673602329613</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.100519943802199</v>
+        <v>0.1008456551970131</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1218928394415661</v>
+        <v>0.1229777603986216</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>815927</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>766436</v>
+        <v>773533</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>860202</v>
+        <v>864396</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4165285582162108</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3912637401284229</v>
+        <v>0.3948867301075446</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4391312269992708</v>
+        <v>0.4412723005954841</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>748</v>
@@ -3296,19 +3296,19 @@
         <v>807451</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>763145</v>
+        <v>757934</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>848900</v>
+        <v>848220</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4601172614178889</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4348697974257158</v>
+        <v>0.4319002048705875</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4837362275753649</v>
+        <v>0.4833487902538575</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1503</v>
@@ -3317,19 +3317,19 @@
         <v>1623378</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1554875</v>
+        <v>1561062</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1685682</v>
+        <v>1685898</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4371257734903257</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4186799440458521</v>
+        <v>0.4203460077475224</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4539023174633821</v>
+        <v>0.4539603959331823</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>658207</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>617665</v>
+        <v>608788</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>703379</v>
+        <v>696402</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3360131572532228</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3153165321043276</v>
+        <v>0.3107849129361033</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3590731851771953</v>
+        <v>0.3555116521646517</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>467</v>
@@ -3367,19 +3367,19 @@
         <v>496896</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>461497</v>
+        <v>459738</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>544621</v>
+        <v>538869</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2831507872676461</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2629787976412351</v>
+        <v>0.2619765619461356</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3103461301684896</v>
+        <v>0.3070685908570081</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1101</v>
@@ -3388,19 +3388,19 @@
         <v>1155103</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1097516</v>
+        <v>1095365</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1213248</v>
+        <v>1214212</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3110338040144939</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2955273245044936</v>
+        <v>0.2949480125837811</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3266902482397736</v>
+        <v>0.3269498790477129</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>286839</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>253476</v>
+        <v>257967</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>318535</v>
+        <v>318901</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1464305903166986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.129398877865192</v>
+        <v>0.1316916378547952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1626113489260942</v>
+        <v>0.1627981748386747</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>161</v>
@@ -3438,19 +3438,19 @@
         <v>166309</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>143158</v>
+        <v>143085</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>191346</v>
+        <v>195467</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09476951138802622</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08157694239224633</v>
+        <v>0.08153540350964862</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1090363562739029</v>
+        <v>0.1113849155542067</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>437</v>
@@ -3459,19 +3459,19 @@
         <v>453148</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>413957</v>
+        <v>414508</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>497592</v>
+        <v>494387</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1220188899028643</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1114657540999598</v>
+        <v>0.1116143820306514</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1339861891558095</v>
+        <v>0.1331231759762893</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>5193</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13582</v>
+        <v>14324</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01083679556094019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002246430878152159</v>
+        <v>0.002232265689401043</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02834096308635066</v>
+        <v>0.02988838722312884</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3584,19 +3584,19 @@
         <v>5120</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1182</v>
+        <v>1153</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13083</v>
+        <v>12565</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01118728184508186</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002583788078625943</v>
+        <v>0.002518388707634335</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02858782572599682</v>
+        <v>0.02745565058080082</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -3605,19 +3605,19 @@
         <v>10313</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4286</v>
+        <v>4612</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20255</v>
+        <v>20004</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01100799893730596</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004574884590461253</v>
+        <v>0.004922509701682248</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02161991690762751</v>
+        <v>0.0213515218487029</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>24203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14620</v>
+        <v>14779</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38642</v>
+        <v>38661</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05050307293322743</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03050742799063867</v>
+        <v>0.03083890806226049</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08063158147582201</v>
+        <v>0.08067128126255094</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -3655,19 +3655,19 @@
         <v>30166</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19617</v>
+        <v>19615</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>42421</v>
+        <v>43165</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06591552700577478</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04286413604307432</v>
+        <v>0.04285966900271554</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09269308103978069</v>
+        <v>0.09432043536610828</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -3676,19 +3676,19 @@
         <v>54369</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>41335</v>
+        <v>39235</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75220</v>
+        <v>72063</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05803165335047369</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04411896814362833</v>
+        <v>0.04187810227306215</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08028725291781584</v>
+        <v>0.07691732222039933</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>181241</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>160380</v>
+        <v>158517</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>205656</v>
+        <v>204965</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3781826412708907</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3346528439389913</v>
+        <v>0.3307657504175322</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.42912632380994</v>
+        <v>0.4276840213750445</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>201</v>
@@ -3726,19 +3726,19 @@
         <v>225906</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>203625</v>
+        <v>204989</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>247535</v>
+        <v>249987</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4936272635238094</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4449407749222618</v>
+        <v>0.4479222740974549</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5408887917499939</v>
+        <v>0.5462463207123445</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>369</v>
@@ -3747,19 +3747,19 @@
         <v>407147</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>374107</v>
+        <v>376643</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>438677</v>
+        <v>441783</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.434574317656666</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3993083230723028</v>
+        <v>0.4020150551944077</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4682274501701834</v>
+        <v>0.471543391426165</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>199020</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>177026</v>
+        <v>176995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>223944</v>
+        <v>223860</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4152805783993919</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3693857862052128</v>
+        <v>0.3693216817563224</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4672859225708755</v>
+        <v>0.4671111107937201</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>133</v>
@@ -3797,19 +3797,19 @@
         <v>145713</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>126592</v>
+        <v>126395</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>170499</v>
+        <v>167869</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3183984371438713</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2766161789339121</v>
+        <v>0.2761862213839082</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3725579000815612</v>
+        <v>0.3668103954235544</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>320</v>
@@ -3818,19 +3818,19 @@
         <v>344734</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>312817</v>
+        <v>312895</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>374449</v>
+        <v>374654</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3679561881365604</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3338898978690191</v>
+        <v>0.3339728382753036</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3996733511774217</v>
+        <v>0.399892455513495</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>69585</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53362</v>
+        <v>53188</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87605</v>
+        <v>86236</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1451969118355498</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1113471012602288</v>
+        <v>0.1109828266553781</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1827990694027936</v>
+        <v>0.1799420464877383</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -3868,19 +3868,19 @@
         <v>50740</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38257</v>
+        <v>37220</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>65336</v>
+        <v>65070</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1108714904814626</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08359576931956479</v>
+        <v>0.08132838009328698</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1427647114168506</v>
+        <v>0.1421851464978947</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>106</v>
@@ -3889,19 +3889,19 @@
         <v>120324</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>98411</v>
+        <v>98550</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>144605</v>
+        <v>141219</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.128429841918994</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1050407395913714</v>
+        <v>0.1051884044718926</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1543457743318051</v>
+        <v>0.1507322882160327</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>101515</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>82532</v>
+        <v>82888</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>123594</v>
+        <v>124253</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02974582515462371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02418349531875356</v>
+        <v>0.02428778293246543</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03621541027940168</v>
+        <v>0.03640848974968952</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>186</v>
@@ -4014,19 +4014,19 @@
         <v>201225</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>174724</v>
+        <v>173725</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>231325</v>
+        <v>232070</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05669314543951519</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04922652330503464</v>
+        <v>0.04894523833957491</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.065173345759008</v>
+        <v>0.06538337754408664</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>277</v>
@@ -4035,19 +4035,19 @@
         <v>302741</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>269138</v>
+        <v>270332</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>338264</v>
+        <v>335381</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04348388086690852</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03865742889922506</v>
+        <v>0.03882891656572147</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04858620550607248</v>
+        <v>0.04817215460637934</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>466767</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>424873</v>
+        <v>421750</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>512161</v>
+        <v>507140</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1367710245787551</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.124495604547521</v>
+        <v>0.1235804481773698</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1500724507615214</v>
+        <v>0.1486012816542225</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>690</v>
@@ -4085,19 +4085,19 @@
         <v>744952</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>695622</v>
+        <v>698811</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>798901</v>
+        <v>796284</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2098824952379046</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.195984331011473</v>
+        <v>0.1968825882034771</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2250818889089723</v>
+        <v>0.2243445910374583</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1115</v>
@@ -4106,19 +4106,19 @@
         <v>1211719</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1148238</v>
+        <v>1144177</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1278604</v>
+        <v>1279439</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1740440983576574</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1649260610897962</v>
+        <v>0.1643427907863812</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1836511245503471</v>
+        <v>0.1837710625349959</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>1425868</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1365709</v>
+        <v>1365445</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1482796</v>
+        <v>1488612</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4178051732745907</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4001773765206479</v>
+        <v>0.4000999414897571</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4344861312039193</v>
+        <v>0.4361901487862117</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1443</v>
@@ -4156,19 +4156,19 @@
         <v>1566537</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1506741</v>
+        <v>1502563</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1628998</v>
+        <v>1632175</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4413554320387617</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4245085060389805</v>
+        <v>0.4233314088707251</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4589530396227348</v>
+        <v>0.45984817072711</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2770</v>
@@ -4177,19 +4177,19 @@
         <v>2992406</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2904348</v>
+        <v>2907486</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3080726</v>
+        <v>3076631</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4298113677132377</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4171632771513447</v>
+        <v>0.4176139844274022</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4424971770951764</v>
+        <v>0.441908931887902</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>1020659</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>966420</v>
+        <v>968918</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1074520</v>
+        <v>1077893</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.299071613725417</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2831785707677178</v>
+        <v>0.2839104187401665</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3148536631497434</v>
+        <v>0.3158420537312971</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>746</v>
@@ -4227,19 +4227,19 @@
         <v>799669</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>747340</v>
+        <v>745161</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>853095</v>
+        <v>850939</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2252982757687482</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.210555310560132</v>
+        <v>0.209941317488426</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2403504910999984</v>
+        <v>0.2397430707529624</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1721</v>
@@ -4248,19 +4248,19 @@
         <v>1820328</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1751723</v>
+        <v>1742870</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1898685</v>
+        <v>1902626</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.261461112339193</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2516070978140756</v>
+        <v>0.2503354660842097</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2727158084692587</v>
+        <v>0.2732819619600486</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>397949</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>361403</v>
+        <v>363045</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>435099</v>
+        <v>438185</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1166063632666136</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1058975762296083</v>
+        <v>0.1063786685650923</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1274920083010924</v>
+        <v>0.1283962271250174</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>225</v>
@@ -4298,19 +4298,19 @@
         <v>236994</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>206801</v>
+        <v>209531</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>265822</v>
+        <v>272777</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06677065151507039</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05826410237333764</v>
+        <v>0.05903318459304163</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0748924721083752</v>
+        <v>0.07685216981433579</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>602</v>
@@ -4319,19 +4319,19 @@
         <v>634944</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>582405</v>
+        <v>583874</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>687886</v>
+        <v>682975</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09119954072300329</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08365326220167553</v>
+        <v>0.08386420634262423</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09880388424181201</v>
+        <v>0.09809845374673591</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>49728</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36100</v>
+        <v>38468</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62281</v>
+        <v>64577</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06592198682381954</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04785582038499096</v>
+        <v>0.05099448231364863</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08256333198639328</v>
+        <v>0.08560698232864612</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>96</v>
@@ -4683,19 +4683,19 @@
         <v>114972</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94172</v>
+        <v>93459</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135594</v>
+        <v>137877</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1160808404388334</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09508077470043905</v>
+        <v>0.09436042956047276</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1369022491487029</v>
+        <v>0.1392070212001165</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>149</v>
@@ -4704,19 +4704,19 @@
         <v>164700</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>140808</v>
+        <v>141400</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>191141</v>
+        <v>189441</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09439505401248859</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08070203670027876</v>
+        <v>0.08104141915684497</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1095494770505176</v>
+        <v>0.10857498949905</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>199558</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>175435</v>
+        <v>178864</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>223005</v>
+        <v>225433</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2645440822451151</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2325652289689224</v>
+        <v>0.2371109482066615</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2956261572340546</v>
+        <v>0.298845137711954</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>293</v>
@@ -4754,19 +4754,19 @@
         <v>336030</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>306644</v>
+        <v>307510</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>371482</v>
+        <v>368140</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3392718698500879</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3096023696206234</v>
+        <v>0.3104765709940994</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3750662381485069</v>
+        <v>0.3716915671798024</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>497</v>
@@ -4775,19 +4775,19 @@
         <v>535588</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>496931</v>
+        <v>498151</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>573203</v>
+        <v>580730</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3069638977709647</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2848084767455512</v>
+        <v>0.2855078204545735</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3285221755576977</v>
+        <v>0.3328366172047703</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>275741</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>250133</v>
+        <v>251403</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>303517</v>
+        <v>301762</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.365536668662143</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3315893396328091</v>
+        <v>0.3332717198243452</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4023569812928101</v>
+        <v>0.4000308339178599</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>296</v>
@@ -4825,19 +4825,19 @@
         <v>325602</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>293251</v>
+        <v>294287</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>357195</v>
+        <v>355664</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3287430551849817</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2960802788104133</v>
+        <v>0.2971260463861291</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3606416185009576</v>
+        <v>0.3590952138229059</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>576</v>
@@ -4846,19 +4846,19 @@
         <v>601343</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>558298</v>
+        <v>562237</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>641311</v>
+        <v>643617</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3446504850047169</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3199796906494295</v>
+        <v>0.3222372712644188</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3675572970516995</v>
+        <v>0.3688793336901528</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>163216</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>139332</v>
+        <v>140964</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>185637</v>
+        <v>186952</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2163675388627826</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1847058499084162</v>
+        <v>0.1868686222534688</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2460891029771131</v>
+        <v>0.2478322510393124</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>153</v>
@@ -4896,19 +4896,19 @@
         <v>160686</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137360</v>
+        <v>139430</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>184989</v>
+        <v>185453</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1622363656686977</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.138685702752181</v>
+        <v>0.1407752643365254</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1867736588314195</v>
+        <v>0.1872426623568818</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>313</v>
@@ -4917,19 +4917,19 @@
         <v>323902</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>291794</v>
+        <v>289865</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>358119</v>
+        <v>355191</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1856395532675274</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1672371816558021</v>
+        <v>0.1661317390275319</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.205250472205303</v>
+        <v>0.203572018708452</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>66103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52955</v>
+        <v>52456</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84166</v>
+        <v>83559</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08762972340613973</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07019938071545723</v>
+        <v>0.06953870347244695</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1115752509235264</v>
+        <v>0.1107701017681161</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>51</v>
@@ -4967,19 +4967,19 @@
         <v>53155</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40905</v>
+        <v>38710</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70795</v>
+        <v>67906</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0536678688573993</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0412997373231998</v>
+        <v>0.03908338278761386</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07147835817776313</v>
+        <v>0.06856098004642221</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>116</v>
@@ -4988,19 +4988,19 @@
         <v>119258</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>99352</v>
+        <v>98699</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>143184</v>
+        <v>141584</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06835100994430247</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05694207485998761</v>
+        <v>0.05656764430018998</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0820636648072019</v>
+        <v>0.08114679907383243</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>35732</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24936</v>
+        <v>24000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52162</v>
+        <v>49115</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01722394205953595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01202023631639496</v>
+        <v>0.01156896336723233</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02514379526832966</v>
+        <v>0.02367534799735277</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -5113,19 +5113,19 @@
         <v>65471</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49397</v>
+        <v>51410</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83443</v>
+        <v>84676</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0329280438084389</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02484359684304795</v>
+        <v>0.02585649200088011</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04196698420932837</v>
+        <v>0.04258727072437819</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -5134,19 +5134,19 @@
         <v>101202</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82728</v>
+        <v>83388</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123835</v>
+        <v>124163</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02490933630704659</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02036226083810471</v>
+        <v>0.02052454661352371</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03047993820380324</v>
+        <v>0.0305608109499502</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>215708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>188129</v>
+        <v>190551</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>246056</v>
+        <v>248270</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1039790569538706</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09068521217645178</v>
+        <v>0.09185256894153875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1186078320608291</v>
+        <v>0.1196750171305762</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>244</v>
@@ -5184,19 +5184,19 @@
         <v>272852</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>242995</v>
+        <v>241951</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>303909</v>
+        <v>305033</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1372289817385039</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1222122890602246</v>
+        <v>0.1216873946119336</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1528485085244528</v>
+        <v>0.1534141074368589</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>444</v>
@@ -5205,19 +5205,19 @@
         <v>488560</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>449322</v>
+        <v>448215</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>533661</v>
+        <v>536087</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1202511611949065</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1105933920853364</v>
+        <v>0.1103209171596053</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1313518832764603</v>
+        <v>0.1319489932620777</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>632434</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>590438</v>
+        <v>590665</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>676860</v>
+        <v>676720</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3048561757099149</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2846127586461129</v>
+        <v>0.2847219135620296</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3262709968995082</v>
+        <v>0.3262036287773979</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>581</v>
@@ -5255,19 +5255,19 @@
         <v>617765</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>575466</v>
+        <v>578316</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>660367</v>
+        <v>656997</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3107002168003012</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2894263348013967</v>
+        <v>0.2908595583000594</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3321263579673281</v>
+        <v>0.3304315879865065</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1169</v>
@@ -5276,19 +5276,19 @@
         <v>1250199</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1191327</v>
+        <v>1192426</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1310736</v>
+        <v>1310679</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3077161775423284</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2932257076826517</v>
+        <v>0.2934963037826533</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3226163630860003</v>
+        <v>0.3226023941200699</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>797670</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>753058</v>
+        <v>753930</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>840895</v>
+        <v>844762</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3845059721768907</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3630014753771744</v>
+        <v>0.3634219016029029</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4053421585442003</v>
+        <v>0.4072058654173529</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>690</v>
@@ -5326,19 +5326,19 @@
         <v>697041</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>656377</v>
+        <v>655388</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>739366</v>
+        <v>738246</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3505713345577003</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3301196377280877</v>
+        <v>0.3296222966152205</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3718581243755192</v>
+        <v>0.3712949023152359</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1445</v>
@@ -5347,19 +5347,19 @@
         <v>1494711</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1430043</v>
+        <v>1432682</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1550101</v>
+        <v>1555535</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3678987778960651</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3519819323374838</v>
+        <v>0.3526314326756909</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.381532195315696</v>
+        <v>0.3828696828381279</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>392989</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>358433</v>
+        <v>356246</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>429660</v>
+        <v>428037</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1894348530997878</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1727776640327875</v>
+        <v>0.1717237188133432</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2071119282412712</v>
+        <v>0.2063295795145855</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -5397,19 +5397,19 @@
         <v>335171</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>300934</v>
+        <v>302505</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369047</v>
+        <v>368762</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1685714230950557</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1513525126319595</v>
+        <v>0.1521423955517642</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1856095295284569</v>
+        <v>0.1854662102254159</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>710</v>
@@ -5418,19 +5418,19 @@
         <v>728159</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>676509</v>
+        <v>679801</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>779704</v>
+        <v>777160</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1792245470596534</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1665117422060504</v>
+        <v>0.1673220168417532</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1919114041381935</v>
+        <v>0.191285413020709</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>5670</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12930</v>
+        <v>14885</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01042405242331835</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00354506304940253</v>
+        <v>0.003547400923649172</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02377318640958125</v>
+        <v>0.02736776495073501</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -5543,19 +5543,19 @@
         <v>9554</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4255</v>
+        <v>4119</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19111</v>
+        <v>17868</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01742978432623867</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007763628318950082</v>
+        <v>0.007514116908075755</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03486656962735449</v>
+        <v>0.03259775087922828</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -5564,19 +5564,19 @@
         <v>15223</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8876</v>
+        <v>7811</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26334</v>
+        <v>26563</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01394045788949977</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008127917848862206</v>
+        <v>0.007153026445479159</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02411442591385574</v>
+        <v>0.02432457524389639</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>25610</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16720</v>
+        <v>16856</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37323</v>
+        <v>37911</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04708489401472247</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03073996652260861</v>
+        <v>0.03098983380498217</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06861988398184565</v>
+        <v>0.06970167759369748</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -5614,19 +5614,19 @@
         <v>45207</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32962</v>
+        <v>32747</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>60025</v>
+        <v>59071</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08247503104839754</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06013660723307777</v>
+        <v>0.05974413692005654</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1095089538245661</v>
+        <v>0.1077696208023503</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>64</v>
@@ -5635,19 +5635,19 @@
         <v>70816</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>54826</v>
+        <v>55023</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>90201</v>
+        <v>88907</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06484835870886092</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0502057414763591</v>
+        <v>0.05038610676703265</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08259930464681384</v>
+        <v>0.08141472982378732</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>146873</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>123143</v>
+        <v>125855</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>168468</v>
+        <v>171407</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2700349680617156</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2264061975969229</v>
+        <v>0.2313917218201512</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.309738522423559</v>
+        <v>0.315142342680402</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>170</v>
@@ -5685,19 +5685,19 @@
         <v>182222</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>158525</v>
+        <v>158516</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>201319</v>
+        <v>203955</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3324460354180258</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2892124078443921</v>
+        <v>0.289196283157222</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3672865573655809</v>
+        <v>0.3720956460902939</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>302</v>
@@ -5706,19 +5706,19 @@
         <v>329096</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>298225</v>
+        <v>298162</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>359630</v>
+        <v>360673</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3013611194821637</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2730916416196378</v>
+        <v>0.273034680649324</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3293221292542998</v>
+        <v>0.3302774893824928</v>
       </c>
     </row>
     <row r="19">
@@ -5735,19 +5735,19 @@
         <v>237829</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>213141</v>
+        <v>215823</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>264924</v>
+        <v>264183</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4372625641190072</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3918711461403768</v>
+        <v>0.3968033403989804</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4870771169195163</v>
+        <v>0.485716121317369</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>212</v>
@@ -5756,19 +5756,19 @@
         <v>216794</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>192879</v>
+        <v>191937</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>238307</v>
+        <v>240982</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3955187992514944</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3518876220285722</v>
+        <v>0.3501697367223416</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4347664876937062</v>
+        <v>0.4396468756382796</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>431</v>
@@ -5777,19 +5777,19 @@
         <v>454623</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>421855</v>
+        <v>421469</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>491466</v>
+        <v>488725</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4163100062716357</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3863030727835931</v>
+        <v>0.3859500665597596</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4500479303731045</v>
+        <v>0.447537795597147</v>
       </c>
     </row>
     <row r="20">
@@ -5806,19 +5806,19 @@
         <v>127923</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>109220</v>
+        <v>106472</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>149271</v>
+        <v>151314</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2351935213812363</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2008073069378399</v>
+        <v>0.195754895897584</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2744436479484313</v>
+        <v>0.2781997713948517</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>94</v>
@@ -5827,19 +5827,19 @@
         <v>94349</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>78519</v>
+        <v>78212</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>112707</v>
+        <v>113491</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1721303499558436</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.143249962527253</v>
+        <v>0.142690512315546</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2056229011304316</v>
+        <v>0.2070527326610568</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>213</v>
@@ -5848,19 +5848,19 @@
         <v>222272</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>196397</v>
+        <v>195701</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>253508</v>
+        <v>249878</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2035400576478399</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1798454043667958</v>
+        <v>0.1792081362186033</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2321433570414904</v>
+        <v>0.2288193243476385</v>
       </c>
     </row>
     <row r="21">
@@ -5952,19 +5952,19 @@
         <v>91129</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>74480</v>
+        <v>73997</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>110299</v>
+        <v>112308</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02701903072315717</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02208250531473882</v>
+        <v>0.02193954804727407</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03270256778234595</v>
+        <v>0.03329823243989942</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>163</v>
@@ -5973,19 +5973,19 @@
         <v>189996</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>163906</v>
+        <v>162795</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>219673</v>
+        <v>220670</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05387103564708134</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04647346052852887</v>
+        <v>0.04615856745068261</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06228539227963063</v>
+        <v>0.06256829581565528</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>252</v>
@@ -5994,19 +5994,19 @@
         <v>281126</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>249736</v>
+        <v>245060</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>313841</v>
+        <v>316567</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04074486965757847</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03619542590780542</v>
+        <v>0.03551777295360358</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04548645158030115</v>
+        <v>0.04588161725102052</v>
       </c>
     </row>
     <row r="23">
@@ -6023,19 +6023,19 @@
         <v>440876</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>403611</v>
+        <v>404902</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>482702</v>
+        <v>483658</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1307156280254942</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1196669998087101</v>
+        <v>0.1200498677097625</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1431169100976785</v>
+        <v>0.1434003355555177</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>578</v>
@@ -6044,19 +6044,19 @@
         <v>654089</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>606650</v>
+        <v>600431</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>699807</v>
+        <v>703704</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1854587574775359</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1720080580763924</v>
+        <v>0.1702446575490728</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1984213694478328</v>
+        <v>0.199526446426445</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1005</v>
@@ -6065,19 +6065,19 @@
         <v>1094965</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1031502</v>
+        <v>1031875</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1162149</v>
+        <v>1159261</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1586984687762582</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1495005174011473</v>
+        <v>0.1495545344383972</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1684357814566486</v>
+        <v>0.1680172488368169</v>
       </c>
     </row>
     <row r="24">
@@ -6094,19 +6094,19 @@
         <v>1055049</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1005257</v>
+        <v>1004954</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1111562</v>
+        <v>1108905</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.312812421455304</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2980496220634973</v>
+        <v>0.2979597244118841</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3295680374686006</v>
+        <v>0.3287802770244155</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1047</v>
@@ -6115,19 +6115,19 @@
         <v>1125589</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1066853</v>
+        <v>1074118</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1186852</v>
+        <v>1178138</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3191467648293422</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3024926761425017</v>
+        <v>0.3045526675878563</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3365169620940999</v>
+        <v>0.3340461999315423</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2047</v>
@@ -6136,19 +6136,19 @@
         <v>2180638</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2096754</v>
+        <v>2093331</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2254736</v>
+        <v>2257111</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3160503240683004</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3038926021583559</v>
+        <v>0.3033965767017253</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3267897021221433</v>
+        <v>0.3271339253113514</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>1198715</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1143953</v>
+        <v>1143941</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1256792</v>
+        <v>1259747</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3554083182325238</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3391718497754225</v>
+        <v>0.3391681552023091</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3726274647600473</v>
+        <v>0.3735036570846287</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1055</v>
@@ -6186,19 +6186,19 @@
         <v>1074521</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1018764</v>
+        <v>1023801</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1131863</v>
+        <v>1137283</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3046670595833015</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2888577570332292</v>
+        <v>0.2902860573053859</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3209255040693889</v>
+        <v>0.3224623928999061</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2189</v>
@@ -6207,19 +6207,19 @@
         <v>2273237</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2194695</v>
+        <v>2193830</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2352009</v>
+        <v>2356261</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.32947109881363</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3180876284334623</v>
+        <v>0.3179622749653867</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3408879149440067</v>
+        <v>0.3415042217854691</v>
       </c>
     </row>
     <row r="26">
@@ -6236,19 +6236,19 @@
         <v>587015</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>543270</v>
+        <v>542342</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>633671</v>
+        <v>632844</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1740446015635208</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.161074741235534</v>
+        <v>0.1607993809809662</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1878776020925647</v>
+        <v>0.1876324837595688</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>479</v>
@@ -6257,19 +6257,19 @@
         <v>482675</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>441202</v>
+        <v>438054</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>522007</v>
+        <v>522840</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1368563824627391</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1250971762811985</v>
+        <v>0.1242048511061773</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1480085345199074</v>
+        <v>0.1482446007696943</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1039</v>
@@ -6278,19 +6278,19 @@
         <v>1069690</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1009625</v>
+        <v>1009545</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1133545</v>
+        <v>1129043</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1550352386842329</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1463297788782317</v>
+        <v>0.1463182019348061</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1642901012685497</v>
+        <v>0.1636375667973112</v>
       </c>
     </row>
     <row r="27">
@@ -6621,19 +6621,19 @@
         <v>58755</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47396</v>
+        <v>47358</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72825</v>
+        <v>72865</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1015591581787251</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08192476744464222</v>
+        <v>0.08185889036189377</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.125879401372143</v>
+        <v>0.12594851407212</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>241</v>
@@ -6642,19 +6642,19 @@
         <v>131129</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>116262</v>
+        <v>116168</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>148047</v>
+        <v>148151</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1595171106426255</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1414311719990278</v>
+        <v>0.1413168376685773</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1800980935539235</v>
+        <v>0.1802239547659978</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>325</v>
@@ -6663,19 +6663,19 @@
         <v>189884</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>169913</v>
+        <v>170150</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>210806</v>
+        <v>210429</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1355765397134931</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1213175068604774</v>
+        <v>0.1214863498190541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1505148328075367</v>
+        <v>0.1502459301945802</v>
       </c>
     </row>
     <row r="5">
@@ -6692,19 +6692,19 @@
         <v>160659</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>142480</v>
+        <v>141407</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>180635</v>
+        <v>180996</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2777020810093957</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2462796470650737</v>
+        <v>0.244425133043349</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3122307570583707</v>
+        <v>0.3128549933337618</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>546</v>
@@ -6713,19 +6713,19 @@
         <v>300891</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>278208</v>
+        <v>282056</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>321284</v>
+        <v>322354</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3660310665235011</v>
+        <v>0.3660310665235013</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3384370634080793</v>
+        <v>0.3431175879560346</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3908388962379708</v>
+        <v>0.3921400186624762</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>754</v>
@@ -6734,19 +6734,19 @@
         <v>461550</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>434571</v>
+        <v>432457</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>492466</v>
+        <v>490991</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3295451961139854</v>
+        <v>0.3295451961139853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3102818738622294</v>
+        <v>0.3087729520311292</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3516188697168861</v>
+        <v>0.3505661194432576</v>
       </c>
     </row>
     <row r="6">
@@ -6763,19 +6763,19 @@
         <v>223863</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>201290</v>
+        <v>199809</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>247810</v>
+        <v>246240</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3869524255761708</v>
+        <v>0.3869524255761707</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3479334095522577</v>
+        <v>0.3453736562719505</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4283456606289071</v>
+        <v>0.4256305358345131</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>497</v>
@@ -6784,19 +6784,19 @@
         <v>296612</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>275218</v>
+        <v>276033</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>320064</v>
+        <v>320417</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3608251325455867</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3347990938575691</v>
+        <v>0.3357911183542506</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3893545077453449</v>
+        <v>0.3897832654191564</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>767</v>
@@ -6805,19 +6805,19 @@
         <v>520475</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>489383</v>
+        <v>488290</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>549376</v>
+        <v>551893</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.371617479158841</v>
+        <v>0.3716174791588409</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3494178603601634</v>
+        <v>0.3486370198761009</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.392252552766475</v>
+        <v>0.3940498030881965</v>
       </c>
     </row>
     <row r="7">
@@ -6834,19 +6834,19 @@
         <v>81416</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65660</v>
+        <v>65712</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99393</v>
+        <v>100302</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1407286705423798</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.113495504366761</v>
+        <v>0.1135842265935771</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1718027771388952</v>
+        <v>0.1733744588908831</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>122</v>
@@ -6855,19 +6855,19 @@
         <v>75214</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63389</v>
+        <v>62055</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91615</v>
+        <v>88966</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09149671332260367</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0771123214190583</v>
+        <v>0.07548981667414729</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1114482465993461</v>
+        <v>0.108225580367923</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>207</v>
@@ -6876,19 +6876,19 @@
         <v>156629</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>135462</v>
+        <v>135839</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>178111</v>
+        <v>181726</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1118328555376723</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09671960275581952</v>
+        <v>0.09698862539448778</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1271706799601447</v>
+        <v>0.12975188285538</v>
       </c>
     </row>
     <row r="8">
@@ -6905,19 +6905,19 @@
         <v>53837</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39199</v>
+        <v>38709</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>73142</v>
+        <v>72543</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09305766469332867</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06775690166595612</v>
+        <v>0.06690933090844106</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1264280764669814</v>
+        <v>0.1253929458597739</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -6926,19 +6926,19 @@
         <v>18192</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11639</v>
+        <v>10916</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30864</v>
+        <v>29054</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.02212997696568292</v>
+        <v>0.02212997696568293</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01415840319831346</v>
+        <v>0.01327925726202982</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03754608581517754</v>
+        <v>0.03534424132613964</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>65</v>
@@ -6947,19 +6947,19 @@
         <v>72028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>53660</v>
+        <v>54933</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>92169</v>
+        <v>96259</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05142792947600845</v>
+        <v>0.05142792947600844</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03831295546473697</v>
+        <v>0.03922223983046175</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0658085448205198</v>
+        <v>0.06872875438931346</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>51968</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40565</v>
+        <v>40009</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66639</v>
+        <v>66866</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02329798373983575</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0181860001500356</v>
+        <v>0.01793658039266492</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02987543218517907</v>
+        <v>0.02997694231050163</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -7072,19 +7072,19 @@
         <v>56497</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46694</v>
+        <v>45720</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70883</v>
+        <v>70263</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02601894719205064</v>
+        <v>0.02601894719205063</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02150411811950448</v>
+        <v>0.02105560279534993</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03264408658947414</v>
+        <v>0.03235831290940477</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>154</v>
@@ -7093,19 +7093,19 @@
         <v>108465</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93402</v>
+        <v>90834</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>127761</v>
+        <v>126064</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02464017691370582</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02121832993693215</v>
+        <v>0.02063484550601693</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02902357420249456</v>
+        <v>0.02863827216942458</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>266581</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>237122</v>
+        <v>237663</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>301590</v>
+        <v>299585</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1195126201884922</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1063058753863706</v>
+        <v>0.1065481008826289</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.135207702652797</v>
+        <v>0.1343089782808033</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>527</v>
@@ -7143,19 +7143,19 @@
         <v>335015</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>306166</v>
+        <v>306554</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>365112</v>
+        <v>365488</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1542859587177371</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.140999933162467</v>
+        <v>0.1411783913513998</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1681466904636482</v>
+        <v>0.1683195002516878</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>813</v>
@@ -7164,19 +7164,19 @@
         <v>601596</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>559169</v>
+        <v>561130</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>649161</v>
+        <v>647280</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1366655656161986</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.127027197985031</v>
+        <v>0.1274727479214496</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1474708557553733</v>
+        <v>0.147043673779127</v>
       </c>
     </row>
     <row r="12">
@@ -7193,19 +7193,19 @@
         <v>917153</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>868102</v>
+        <v>866922</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>970823</v>
+        <v>968054</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4111752061538744</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3891844573034273</v>
+        <v>0.3886557902456176</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4352360171933686</v>
+        <v>0.4339946475859257</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1388</v>
@@ -7214,19 +7214,19 @@
         <v>969987</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>924576</v>
+        <v>926699</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1010485</v>
+        <v>1011468</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.446712268626959</v>
+        <v>0.4467122686269589</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4257988858816938</v>
+        <v>0.4267762786844072</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.46536299233599</v>
+        <v>0.4658156079764015</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2294</v>
@@ -7235,19 +7235,19 @@
         <v>1887141</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1813278</v>
+        <v>1822023</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1954325</v>
+        <v>1957320</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.428704880296297</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.411925192382677</v>
+        <v>0.4139118231449594</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4439671115591189</v>
+        <v>0.4446474058282685</v>
       </c>
     </row>
     <row r="13">
@@ -7264,19 +7264,19 @@
         <v>723437</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>669965</v>
+        <v>670268</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>775168</v>
+        <v>776107</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3243287391751447</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3003563132238174</v>
+        <v>0.3004923577643577</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3475206083261041</v>
+        <v>0.3479417647840617</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>738</v>
@@ -7285,19 +7285,19 @@
         <v>626963</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>583832</v>
+        <v>584561</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>668212</v>
+        <v>667819</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2887376478138105</v>
+        <v>0.2887376478138104</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2688746348294335</v>
+        <v>0.2692102576369264</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.307734312704095</v>
+        <v>0.3075536304860467</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1319</v>
@@ -7306,19 +7306,19 @@
         <v>1350400</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1284969</v>
+        <v>1292352</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1423449</v>
+        <v>1428178</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3067724137357554</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2919083496303387</v>
+        <v>0.2935856120538456</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.323367247480653</v>
+        <v>0.3244413899817442</v>
       </c>
     </row>
     <row r="14">
@@ -7335,19 +7335,19 @@
         <v>271427</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>226991</v>
+        <v>230651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>315438</v>
+        <v>317682</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1216854507426531</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.101763876616632</v>
+        <v>0.1034048804677404</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1414160717782872</v>
+        <v>0.1424221864227376</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>175</v>
@@ -7356,19 +7356,19 @@
         <v>182929</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>154335</v>
+        <v>157176</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>211373</v>
+        <v>214908</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08424517764944273</v>
+        <v>0.08424517764944271</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07107674825992408</v>
+        <v>0.07238480355843555</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09734457283891769</v>
+        <v>0.09897231119619609</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>333</v>
@@ -7377,19 +7377,19 @@
         <v>454357</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>403996</v>
+        <v>400277</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>506209</v>
+        <v>509957</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1032169634380432</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09177649229577552</v>
+        <v>0.09093154804283761</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1149963139403841</v>
+        <v>0.1158477529961413</v>
       </c>
     </row>
     <row r="15">
@@ -7481,19 +7481,19 @@
         <v>10067</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5439</v>
+        <v>5485</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17144</v>
+        <v>18014</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01414713764175456</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007642866477878553</v>
+        <v>0.007707815962162866</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02409220569893202</v>
+        <v>0.02531486330185491</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -7502,19 +7502,19 @@
         <v>12345</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7628</v>
+        <v>7680</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18458</v>
+        <v>18816</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01679873498770257</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01038022730355198</v>
+        <v>0.01045078239359694</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02511682469413795</v>
+        <v>0.02560468387584316</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -7523,19 +7523,19 @@
         <v>22412</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15676</v>
+        <v>14667</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31595</v>
+        <v>30224</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01549428366635273</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01083779729380677</v>
+        <v>0.01013971642804623</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02184274210667738</v>
+        <v>0.02089482558439737</v>
       </c>
     </row>
     <row r="17">
@@ -7552,19 +7552,19 @@
         <v>64367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50264</v>
+        <v>49434</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>81172</v>
+        <v>82896</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09045553629589816</v>
+        <v>0.09045553629589814</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0706361510792449</v>
+        <v>0.06947052032693138</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1140720116917777</v>
+        <v>0.116495038333279</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>108</v>
@@ -7573,19 +7573,19 @@
         <v>70625</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>58357</v>
+        <v>57370</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>84020</v>
+        <v>85035</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09610512005727205</v>
+        <v>0.09610512005727206</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07941073234389895</v>
+        <v>0.07806799610908445</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1143327283667585</v>
+        <v>0.1157137853282181</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>176</v>
@@ -7594,19 +7594,19 @@
         <v>134992</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>116730</v>
+        <v>114606</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>157886</v>
+        <v>158031</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09332581157219512</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08069994788493105</v>
+        <v>0.07923172089675987</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1091528867815852</v>
+        <v>0.1092531507092228</v>
       </c>
     </row>
     <row r="18">
@@ -7623,19 +7623,19 @@
         <v>330604</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>302011</v>
+        <v>304121</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>362261</v>
+        <v>358584</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4646007125027711</v>
+        <v>0.464600712502771</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4244186365889301</v>
+        <v>0.4273834457997839</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5090890263839161</v>
+        <v>0.5039216105325348</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>479</v>
@@ -7644,19 +7644,19 @@
         <v>332820</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>308505</v>
+        <v>307967</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>358931</v>
+        <v>355410</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4528921808736381</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4198047306038615</v>
+        <v>0.4190725515735922</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4884231077004474</v>
+        <v>0.483632418410862</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>825</v>
@@ -7665,19 +7665,19 @@
         <v>663424</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>622492</v>
+        <v>629106</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>697167</v>
+        <v>703618</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4586521842082427</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4303546344875842</v>
+        <v>0.4349269031976201</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4819802278010093</v>
+        <v>0.4864399161344</v>
       </c>
     </row>
     <row r="19">
@@ -7694,19 +7694,19 @@
         <v>208948</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>181064</v>
+        <v>183053</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>234225</v>
+        <v>236215</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.293637263460096</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2544513441739379</v>
+        <v>0.2572458314314913</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3291592266540147</v>
+        <v>0.3319547986318298</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>288</v>
@@ -7715,19 +7715,19 @@
         <v>228114</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>207526</v>
+        <v>205844</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>253848</v>
+        <v>252977</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3104114866274974</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2823958011625378</v>
+        <v>0.2801061899464215</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3454298730055283</v>
+        <v>0.3442444871984199</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>474</v>
@@ -7736,19 +7736,19 @@
         <v>437063</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>401925</v>
+        <v>405155</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>471579</v>
+        <v>474263</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3021594201481086</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2778674091023215</v>
+        <v>0.2801004897110363</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3260218111840402</v>
+        <v>0.3278772015935514</v>
       </c>
     </row>
     <row r="20">
@@ -7765,19 +7765,19 @@
         <v>97601</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>76387</v>
+        <v>75581</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123377</v>
+        <v>121542</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1371593500994802</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1073475520249971</v>
+        <v>0.1062143841369925</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1733832085829118</v>
+        <v>0.170803740104402</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>110</v>
@@ -7786,19 +7786,19 @@
         <v>90972</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>75589</v>
+        <v>75005</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>108296</v>
+        <v>109362</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1237924774538897</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1028594183410991</v>
+        <v>0.1020651820162378</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1473666590269525</v>
+        <v>0.1488169967505328</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>178</v>
@@ -7807,19 +7807,19 @@
         <v>188573</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>160663</v>
+        <v>161995</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>218097</v>
+        <v>217644</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1303683004051009</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1110729778116487</v>
+        <v>0.11199362959392</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1507792545524635</v>
+        <v>0.1504661281276834</v>
       </c>
     </row>
     <row r="21">
@@ -7911,19 +7911,19 @@
         <v>120790</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>102914</v>
+        <v>102136</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>141113</v>
+        <v>141026</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03430856614701396</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02923119200302658</v>
+        <v>0.02901030939478429</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04008121327591731</v>
+        <v>0.04005635153670965</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>353</v>
@@ -7932,19 +7932,19 @@
         <v>199971</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>176490</v>
+        <v>178572</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>221164</v>
+        <v>221187</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05363598984306726</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0473378383290401</v>
+        <v>0.04789626503116488</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05932033190762959</v>
+        <v>0.059326441100162</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>511</v>
@@ -7953,19 +7953,19 @@
         <v>320761</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>294506</v>
+        <v>290747</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>351502</v>
+        <v>349771</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.04424906457202888</v>
+        <v>0.04424906457202889</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04062720104621142</v>
+        <v>0.04010858414891877</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04848978476630044</v>
+        <v>0.04825105246883982</v>
       </c>
     </row>
     <row r="23">
@@ -7982,19 +7982,19 @@
         <v>491607</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>452376</v>
+        <v>450401</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>539672</v>
+        <v>531432</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1396338910192865</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1284909370714696</v>
+        <v>0.1279300844893552</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.153286157446984</v>
+        <v>0.1509456706390251</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1181</v>
@@ -8003,19 +8003,19 @@
         <v>706532</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>667574</v>
+        <v>665010</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>749429</v>
+        <v>746956</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1895048154400279</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1790554631791476</v>
+        <v>0.178367905494431</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2010104694918722</v>
+        <v>0.2003473193645814</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1743</v>
@@ -8024,19 +8024,19 @@
         <v>1198139</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1140491</v>
+        <v>1141255</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1259076</v>
+        <v>1252982</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1652835509767929</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1573310132142417</v>
+        <v>0.1574364465204429</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1736898946335348</v>
+        <v>0.1728491206079105</v>
       </c>
     </row>
     <row r="24">
@@ -8053,19 +8053,19 @@
         <v>1471621</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1408120</v>
+        <v>1410091</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1534597</v>
+        <v>1533477</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4179930049466399</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3999563547474385</v>
+        <v>0.400516297585585</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4358803767020988</v>
+        <v>0.435562265792099</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2364</v>
@@ -8074,19 +8074,19 @@
         <v>1599419</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1546555</v>
+        <v>1537837</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1649105</v>
+        <v>1656721</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.4289935034753843</v>
+        <v>0.4289935034753844</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4148141586984271</v>
+        <v>0.4124760472167384</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4423201187215614</v>
+        <v>0.4443628317147008</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3886</v>
@@ -8095,19 +8095,19 @@
         <v>3071040</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2980368</v>
+        <v>2980876</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3153952</v>
+        <v>3155277</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4236507915207343</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4111424846802463</v>
+        <v>0.4112126296646511</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.435088461320729</v>
+        <v>0.4352712686267131</v>
       </c>
     </row>
     <row r="25">
@@ -8124,19 +8124,19 @@
         <v>1013801</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>954453</v>
+        <v>953464</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1077092</v>
+        <v>1080734</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2879557671246321</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2710988037386667</v>
+        <v>0.2708178906324012</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3059327124338068</v>
+        <v>0.3069671485794104</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1148</v>
@@ -8145,19 +8145,19 @@
         <v>930291</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>882884</v>
+        <v>882217</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>980472</v>
+        <v>981102</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2495209485379119</v>
+        <v>0.249520948537912</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.236805645523859</v>
+        <v>0.2366266414806335</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2629804341679975</v>
+        <v>0.2631493477578705</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2000</v>
@@ -8166,19 +8166,19 @@
         <v>1944092</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1867603</v>
+        <v>1866584</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2023368</v>
+        <v>2016893</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2681879356932218</v>
+        <v>0.2681879356932219</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2576363430547208</v>
+        <v>0.2574957299625734</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2791241559484244</v>
+        <v>0.2782308742876898</v>
       </c>
     </row>
     <row r="26">
@@ -8195,19 +8195,19 @@
         <v>422865</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>375070</v>
+        <v>375273</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>480402</v>
+        <v>483785</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1201087707624275</v>
+        <v>0.1201087707624276</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1065333057621337</v>
+        <v>0.1065908644477254</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1364514765421616</v>
+        <v>0.1374122434968094</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>306</v>
@@ -8216,19 +8216,19 @@
         <v>292093</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>257634</v>
+        <v>259382</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>329159</v>
+        <v>333616</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07834474270360851</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06910209560964468</v>
+        <v>0.06957102928070774</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08828639194720485</v>
+        <v>0.08948183242192766</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>576</v>
@@ -8237,19 +8237,19 @@
         <v>714958</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>653107</v>
+        <v>651839</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>783332</v>
+        <v>779998</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.09862865723722213</v>
+        <v>0.09862865723722217</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09009624876676987</v>
+        <v>0.08992129376584296</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1080608786919875</v>
+        <v>0.1076009085720586</v>
       </c>
     </row>
     <row r="27">
